--- a/pm_death2_total.xlsx
+++ b/pm_death2_total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="661">
   <si>
     <t>county</t>
   </si>
@@ -47,76 +47,70 @@
     <t>year</t>
   </si>
   <si>
-    <t>臺灣地區</t>
-  </si>
-  <si>
-    <t>新北市</t>
-  </si>
-  <si>
-    <t>臺北市</t>
-  </si>
-  <si>
-    <t>臺中市</t>
-  </si>
-  <si>
-    <t>臺南市</t>
-  </si>
-  <si>
-    <t>高雄市</t>
-  </si>
-  <si>
-    <t>宜蘭縣</t>
-  </si>
-  <si>
-    <t>桃園市</t>
-  </si>
-  <si>
-    <t>新竹縣</t>
-  </si>
-  <si>
-    <t>苗栗縣</t>
-  </si>
-  <si>
-    <t>彰化縣</t>
-  </si>
-  <si>
-    <t>南投縣</t>
-  </si>
-  <si>
-    <t>雲林縣</t>
-  </si>
-  <si>
-    <t>嘉義縣</t>
-  </si>
-  <si>
-    <t>屏東縣</t>
-  </si>
-  <si>
-    <t>臺東縣</t>
-  </si>
-  <si>
-    <t>花蓮縣</t>
-  </si>
-  <si>
-    <t>澎湖縣</t>
-  </si>
-  <si>
-    <t>基隆市</t>
-  </si>
-  <si>
-    <t>新竹市</t>
-  </si>
-  <si>
-    <t>嘉義市</t>
-  </si>
-  <si>
-    <t>金門縣</t>
-  </si>
-  <si>
-    <t>連江縣</t>
-  </si>
-  <si>
-    <t>6,326</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>10008</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>10015</t>
+  </si>
+  <si>
+    <t>10016</t>
+  </si>
+  <si>
+    <t>10017</t>
+  </si>
+  <si>
+    <t>10018</t>
+  </si>
+  <si>
+    <t>10020</t>
+  </si>
+  <si>
+    <t>09020</t>
+  </si>
+  <si>
+    <t>09007</t>
   </si>
   <si>
     <t>746</t>
@@ -185,9 +179,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>5,959</t>
-  </si>
-  <si>
     <t>728</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>6,428</t>
-  </si>
-  <si>
     <t>797</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>94</t>
   </si>
   <si>
-    <t>6,383</t>
-  </si>
-  <si>
     <t>789</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>6,787</t>
-  </si>
-  <si>
     <t>860</t>
   </si>
   <si>
@@ -443,9 +425,6 @@
     <t>99</t>
   </si>
   <si>
-    <t>6,260</t>
-  </si>
-  <si>
     <t>768</t>
   </si>
   <si>
@@ -500,1155 +479,1107 @@
     <t>24</t>
   </si>
   <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>41.6</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>44.9</t>
+  </si>
+  <si>
+    <t>39.6</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>43.8</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>42.7</t>
+  </si>
+  <si>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>52.3</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
     <t>27.2</t>
   </si>
   <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>42.2</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>39.6</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>22.8</t>
-  </si>
-  <si>
-    <t>29.6</t>
-  </si>
-  <si>
-    <t>33.4</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>8.5</t>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>51.8</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>40.7</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>38.6</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>33.6</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>36.3</t>
+  </si>
+  <si>
+    <t>54.2</t>
+  </si>
+  <si>
+    <t>58.6</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>56.6</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>54.8</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>47.2</t>
+  </si>
+  <si>
+    <t>30.2</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>55.9</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>63.8</t>
+  </si>
+  <si>
+    <t>57.8</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>50.1</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>53.1</t>
+  </si>
+  <si>
+    <t>71.4</t>
+  </si>
+  <si>
+    <t>54.4</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>55.7</t>
+  </si>
+  <si>
+    <t>63.3</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>28.2</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>48.2</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>84.9</t>
+  </si>
+  <si>
+    <t>55.3</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>60.3</t>
+  </si>
+  <si>
+    <t>61.3</t>
+  </si>
+  <si>
+    <t>64.2</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>60.8</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>53.3</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>59.8</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>59.5</t>
+  </si>
+  <si>
+    <t>75.6</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>61.8</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>28.9</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
+    <t>34.9</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>25.2</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>28.7</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>20.9</t>
+  </si>
+  <si>
+    <t>27.1</t>
   </si>
   <si>
     <t>27.5</t>
   </si>
   <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>37.1</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>32.2</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>41.5</t>
-  </si>
-  <si>
-    <t>43.8</t>
-  </si>
-  <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>27.8</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>57.4</t>
-  </si>
-  <si>
-    <t>39.7</t>
-  </si>
-  <si>
-    <t>52.3</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>28.9</t>
-  </si>
-  <si>
-    <t>21.6</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>25.1</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>52.2</t>
-  </si>
-  <si>
-    <t>51.8</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>40.7</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>14.9</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>37.2</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>46.8</t>
-  </si>
-  <si>
-    <t>37.3</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>22.9</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>20.8</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>4,685</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4,408</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4,698</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4,733</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4,931</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>4,486</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>33.6</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>45.8</t>
-  </si>
-  <si>
-    <t>36.3</t>
-  </si>
-  <si>
-    <t>54.2</t>
-  </si>
-  <si>
-    <t>58.6</t>
-  </si>
-  <si>
-    <t>51.2</t>
-  </si>
-  <si>
-    <t>56.6</t>
-  </si>
-  <si>
-    <t>58.1</t>
-  </si>
-  <si>
-    <t>61.6</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>33.8</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>54.8</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>30.2</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>55.9</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>63.8</t>
-  </si>
-  <si>
-    <t>57.8</t>
-  </si>
-  <si>
-    <t>48.3</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>50.1</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>35.4</t>
-  </si>
-  <si>
-    <t>39.9</t>
-  </si>
-  <si>
-    <t>54.5</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>53.1</t>
-  </si>
-  <si>
-    <t>71.4</t>
-  </si>
-  <si>
-    <t>54.4</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>55.7</t>
-  </si>
-  <si>
-    <t>63.3</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>28.2</t>
-  </si>
-  <si>
-    <t>40.4</t>
-  </si>
-  <si>
-    <t>31.8</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>48.2</t>
-  </si>
-  <si>
-    <t>48.7</t>
-  </si>
-  <si>
-    <t>84.9</t>
-  </si>
-  <si>
-    <t>55.3</t>
-  </si>
-  <si>
-    <t>73.5</t>
-  </si>
-  <si>
-    <t>60.3</t>
-  </si>
-  <si>
-    <t>61.3</t>
-  </si>
-  <si>
-    <t>64.2</t>
-  </si>
-  <si>
-    <t>43.7</t>
-  </si>
-  <si>
-    <t>32.6</t>
-  </si>
-  <si>
-    <t>19.6</t>
-  </si>
-  <si>
-    <t>48.4</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>39.1</t>
-  </si>
-  <si>
-    <t>60.8</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>57.3</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>53.3</t>
-  </si>
-  <si>
-    <t>57.5</t>
-  </si>
-  <si>
-    <t>59.8</t>
-  </si>
-  <si>
-    <t>36.4</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>32.7</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>53.6</t>
-  </si>
-  <si>
-    <t>59.5</t>
-  </si>
-  <si>
-    <t>75.6</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
-    <t>61.8</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>41.9</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>34.4</t>
-  </si>
-  <si>
-    <t>21.7</t>
-  </si>
-  <si>
-    <t>34.9</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>25.2</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>28.7</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>23.9</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>23.8</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>27.1</t>
-  </si>
-  <si>
     <t>35.6</t>
   </si>
   <si>
@@ -1664,9 +1595,6 @@
     <t>18.5</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>20.6</t>
   </si>
   <si>
@@ -1730,9 +1658,6 @@
     <t>13.2</t>
   </si>
   <si>
-    <t>1,641</t>
-  </si>
-  <si>
     <t>161</t>
   </si>
   <si>
@@ -1772,9 +1697,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>1,551</t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
@@ -1802,9 +1724,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>1,730</t>
-  </si>
-  <si>
     <t>187</t>
   </si>
   <si>
@@ -1829,9 +1748,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>1,650</t>
-  </si>
-  <si>
     <t>139</t>
   </si>
   <si>
@@ -1853,9 +1769,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>1,856</t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
@@ -1865,9 +1778,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>1,774</t>
-  </si>
-  <si>
     <t>209</t>
   </si>
   <si>
@@ -1922,9 +1832,6 @@
     <t>3.4</t>
   </si>
   <si>
-    <t>14.8</t>
-  </si>
-  <si>
     <t>12.9</t>
   </si>
   <si>
@@ -2066,10 +1973,10 @@
     <t>2.9</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
     <t>7.5</t>
-  </si>
-  <si>
-    <t>5.0</t>
   </si>
   <si>
     <t>8.2</t>
@@ -2132,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2178,31 +2085,31 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>504</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
-        <v>645</v>
+        <v>253</v>
       </c>
       <c r="K2" t="n">
         <v>2012.0</v>
@@ -2213,31 +2120,31 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
-        <v>528</v>
+        <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>548</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>625</v>
       </c>
       <c r="K3" t="n">
         <v>2012.0</v>
@@ -2248,31 +2155,31 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I4" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="K4" t="n">
         <v>2012.0</v>
@@ -2283,31 +2190,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>162</v>
       </c>
       <c r="H5" t="s">
-        <v>574</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>295</v>
+        <v>594</v>
       </c>
       <c r="J5" t="s">
-        <v>657</v>
+        <v>297</v>
       </c>
       <c r="K5" t="n">
         <v>2012.0</v>
@@ -2318,31 +2225,31 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F6" t="s">
-        <v>443</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>463</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>550</v>
       </c>
       <c r="I6" t="s">
-        <v>624</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="K6" t="n">
         <v>2012.0</v>
@@ -2353,31 +2260,31 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="G7" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="H7" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="J7" t="s">
-        <v>202</v>
+        <v>627</v>
       </c>
       <c r="K7" t="n">
         <v>2012.0</v>
@@ -2388,31 +2295,31 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>444</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
-        <v>530</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>576</v>
+        <v>134</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>595</v>
       </c>
       <c r="J8" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="K8" t="n">
         <v>2012.0</v>
@@ -2423,31 +2330,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>425</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>552</v>
       </c>
       <c r="I9" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="J9" t="s">
-        <v>657</v>
+        <v>599</v>
       </c>
       <c r="K9" t="n">
         <v>2012.0</v>
@@ -2458,31 +2365,31 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F10" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="H10" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="I10" t="s">
-        <v>626</v>
+        <v>527</v>
       </c>
       <c r="J10" t="s">
-        <v>629</v>
+        <v>306</v>
       </c>
       <c r="K10" t="n">
         <v>2012.0</v>
@@ -2493,31 +2400,31 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="I11" t="s">
-        <v>551</v>
+        <v>289</v>
       </c>
       <c r="J11" t="s">
-        <v>316</v>
+        <v>628</v>
       </c>
       <c r="K11" t="n">
         <v>2012.0</v>
@@ -2528,31 +2435,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>427</v>
       </c>
       <c r="G12" t="s">
-        <v>453</v>
+        <v>204</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>378</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>489</v>
       </c>
       <c r="J12" t="s">
-        <v>659</v>
+        <v>301</v>
       </c>
       <c r="K12" t="n">
         <v>2012.0</v>
@@ -2563,31 +2470,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>505</v>
       </c>
       <c r="H13" t="s">
-        <v>391</v>
+        <v>555</v>
       </c>
       <c r="I13" t="s">
-        <v>512</v>
+        <v>218</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
+        <v>608</v>
       </c>
       <c r="K13" t="n">
         <v>2012.0</v>
@@ -2598,31 +2505,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E14" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="H14" t="s">
-        <v>580</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>597</v>
       </c>
       <c r="J14" t="s">
-        <v>639</v>
+        <v>281</v>
       </c>
       <c r="K14" t="n">
         <v>2012.0</v>
@@ -2633,31 +2540,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G15" t="s">
+        <v>508</v>
+      </c>
+      <c r="H15" t="s">
+        <v>549</v>
+      </c>
+      <c r="I15" t="s">
         <v>449</v>
       </c>
-      <c r="G15" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" t="s">
-        <v>422</v>
-      </c>
-      <c r="I15" t="s">
-        <v>627</v>
-      </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="K15" t="n">
         <v>2012.0</v>
@@ -2668,31 +2575,31 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="G16" t="s">
-        <v>531</v>
+        <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="I16" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
+        <v>596</v>
       </c>
       <c r="K16" t="n">
         <v>2012.0</v>
@@ -2703,31 +2610,31 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="H17" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="I17" t="s">
-        <v>563</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K17" t="n">
         <v>2012.0</v>
@@ -2738,31 +2645,31 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F18" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>457</v>
+        <v>232</v>
       </c>
       <c r="H18" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="I18" t="s">
-        <v>343</v>
+        <v>598</v>
       </c>
       <c r="J18" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="K18" t="n">
         <v>2012.0</v>
@@ -2773,31 +2680,31 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>509</v>
       </c>
       <c r="H19" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="I19" t="s">
-        <v>628</v>
+        <v>300</v>
       </c>
       <c r="J19" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="K19" t="n">
         <v>2012.0</v>
@@ -2808,31 +2715,31 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="G20" t="s">
-        <v>532</v>
+        <v>295</v>
       </c>
       <c r="H20" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>599</v>
       </c>
       <c r="J20" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="K20" t="n">
         <v>2012.0</v>
@@ -2843,31 +2750,31 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>510</v>
       </c>
       <c r="H21" t="s">
-        <v>585</v>
+        <v>115</v>
       </c>
       <c r="I21" t="s">
-        <v>629</v>
+        <v>312</v>
       </c>
       <c r="J21" t="s">
-        <v>663</v>
+        <v>253</v>
       </c>
       <c r="K21" t="n">
         <v>2012.0</v>
@@ -2878,31 +2785,31 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="E22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F22" t="s">
-        <v>455</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>633</v>
       </c>
       <c r="K22" t="n">
         <v>2012.0</v>
@@ -2913,31 +2820,31 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>630</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>664</v>
+        <v>54</v>
       </c>
       <c r="K23" t="n">
         <v>2012.0</v>
@@ -2945,69 +2852,69 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>504</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>561</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>601</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>625</v>
       </c>
       <c r="K24" t="n">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E25" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F25" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="H25" t="s">
-        <v>586</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="J25" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="K25" t="n">
         <v>2013.0</v>
@@ -3015,34 +2922,34 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="G26" t="s">
-        <v>528</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>587</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>631</v>
+        <v>308</v>
       </c>
       <c r="J26" t="s">
-        <v>656</v>
+        <v>318</v>
       </c>
       <c r="K26" t="n">
         <v>2013.0</v>
@@ -3050,34 +2957,34 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F27" t="s">
-        <v>457</v>
+        <v>242</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J27" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="K27" t="n">
         <v>2013.0</v>
@@ -3085,34 +2992,34 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E28" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F28" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>511</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>562</v>
       </c>
       <c r="I28" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="K28" t="n">
         <v>2013.0</v>
@@ -3120,34 +3027,34 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>439</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>512</v>
       </c>
       <c r="H29" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="I29" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>632</v>
+        <v>195</v>
       </c>
       <c r="K29" t="n">
         <v>2013.0</v>
@@ -3155,34 +3062,34 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F30" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="G30" t="s">
-        <v>534</v>
+        <v>196</v>
       </c>
       <c r="H30" t="s">
-        <v>588</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>291</v>
+        <v>617</v>
       </c>
       <c r="K30" t="n">
         <v>2013.0</v>
@@ -3190,34 +3097,34 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G31" t="s">
-        <v>535</v>
+        <v>196</v>
       </c>
       <c r="H31" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="I31" t="s">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="J31" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K31" t="n">
         <v>2013.0</v>
@@ -3225,34 +3132,34 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>513</v>
       </c>
       <c r="H32" t="s">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="K32" t="n">
         <v>2013.0</v>
@@ -3260,34 +3167,34 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>358</v>
       </c>
       <c r="F33" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>513</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>635</v>
       </c>
       <c r="K33" t="n">
         <v>2013.0</v>
@@ -3295,34 +3202,34 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="G34" t="s">
-        <v>536</v>
+        <v>421</v>
       </c>
       <c r="H34" t="s">
-        <v>591</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>506</v>
       </c>
       <c r="J34" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="K34" t="n">
         <v>2013.0</v>
@@ -3330,34 +3237,34 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>464</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="I35" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>666</v>
+        <v>608</v>
       </c>
       <c r="K35" t="n">
         <v>2013.0</v>
@@ -3365,34 +3272,34 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="F36" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="G36" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="H36" t="s">
-        <v>420</v>
+        <v>568</v>
       </c>
       <c r="I36" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J36" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="K36" t="n">
         <v>2013.0</v>
@@ -3400,34 +3307,34 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>446</v>
       </c>
       <c r="G37" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="H37" t="s">
-        <v>593</v>
+        <v>95</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="J37" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="K37" t="n">
         <v>2013.0</v>
@@ -3435,34 +3342,34 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>515</v>
       </c>
       <c r="H38" t="s">
-        <v>594</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>668</v>
+        <v>326</v>
       </c>
       <c r="K38" t="n">
         <v>2013.0</v>
@@ -3470,34 +3377,34 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F39" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="G39" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>519</v>
       </c>
       <c r="J39" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="K39" t="n">
         <v>2013.0</v>
@@ -3505,34 +3412,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>538</v>
+        <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>569</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>602</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>632</v>
       </c>
       <c r="K40" t="n">
         <v>2013.0</v>
@@ -3540,34 +3447,34 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>535</v>
+        <v>197</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="J41" t="s">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="K41" t="n">
         <v>2013.0</v>
@@ -3575,34 +3482,34 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="F42" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="H42" t="s">
-        <v>595</v>
+        <v>350</v>
       </c>
       <c r="I42" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="J42" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="K42" t="n">
         <v>2013.0</v>
@@ -3610,34 +3517,34 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>363</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>552</v>
       </c>
       <c r="I43" t="s">
-        <v>633</v>
+        <v>235</v>
       </c>
       <c r="J43" t="s">
-        <v>659</v>
+        <v>596</v>
       </c>
       <c r="K43" t="n">
         <v>2013.0</v>
@@ -3645,34 +3552,34 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E44" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>516</v>
       </c>
       <c r="H44" t="s">
-        <v>360</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="J44" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="K44" t="n">
         <v>2013.0</v>
@@ -3680,34 +3587,34 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="E45" t="s">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="H45" t="s">
-        <v>577</v>
+        <v>54</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>626</v>
+        <v>54</v>
       </c>
       <c r="K45" t="n">
         <v>2013.0</v>
@@ -3715,104 +3622,104 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E46" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>570</v>
       </c>
       <c r="I46" t="s">
-        <v>635</v>
+        <v>326</v>
       </c>
       <c r="J46" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="K46" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="F47" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="G47" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>571</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>606</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>640</v>
       </c>
       <c r="K47" t="n">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E48" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="G48" t="s">
-        <v>540</v>
+        <v>199</v>
       </c>
       <c r="H48" t="s">
-        <v>596</v>
+        <v>398</v>
       </c>
       <c r="I48" t="s">
-        <v>636</v>
+        <v>271</v>
       </c>
       <c r="J48" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="K48" t="n">
         <v>2014.0</v>
@@ -3820,34 +3727,34 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F49" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="G49" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="H49" t="s">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="I49" t="s">
-        <v>335</v>
+        <v>607</v>
       </c>
       <c r="J49" t="s">
-        <v>629</v>
+        <v>253</v>
       </c>
       <c r="K49" t="n">
         <v>2014.0</v>
@@ -3855,34 +3762,34 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="G50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" t="s">
         <v>312</v>
       </c>
-      <c r="H50" t="s">
-        <v>598</v>
-      </c>
-      <c r="I50" t="s">
-        <v>637</v>
-      </c>
       <c r="J50" t="s">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="K50" t="n">
         <v>2014.0</v>
@@ -3890,34 +3797,34 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F51" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
-        <v>414</v>
+        <v>563</v>
       </c>
       <c r="I51" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>672</v>
+        <v>318</v>
       </c>
       <c r="K51" t="n">
         <v>2014.0</v>
@@ -3925,34 +3832,34 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="G52" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I52" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="J52" t="s">
-        <v>262</v>
+        <v>642</v>
       </c>
       <c r="K52" t="n">
         <v>2014.0</v>
@@ -3960,34 +3867,34 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="E53" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="H53" t="s">
-        <v>402</v>
+        <v>572</v>
       </c>
       <c r="I53" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="J53" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="K53" t="n">
         <v>2014.0</v>
@@ -3995,34 +3902,34 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>520</v>
       </c>
       <c r="H54" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="I54" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="J54" t="s">
-        <v>328</v>
+        <v>643</v>
       </c>
       <c r="K54" t="n">
         <v>2014.0</v>
@@ -4030,34 +3937,34 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>186</v>
       </c>
       <c r="G55" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="H55" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="I55" t="s">
-        <v>639</v>
+        <v>176</v>
       </c>
       <c r="J55" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="K55" t="n">
         <v>2014.0</v>
@@ -4065,34 +3972,34 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F56" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="G56" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="H56" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I56" t="s">
-        <v>241</v>
+        <v>513</v>
       </c>
       <c r="J56" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="K56" t="n">
         <v>2014.0</v>
@@ -4100,34 +4007,34 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G57" t="s">
-        <v>544</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>576</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s">
-        <v>319</v>
+        <v>609</v>
       </c>
       <c r="J57" t="s">
-        <v>674</v>
+        <v>194</v>
       </c>
       <c r="K57" t="n">
         <v>2014.0</v>
@@ -4135,34 +4042,34 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>431</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>523</v>
       </c>
       <c r="H58" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>610</v>
       </c>
       <c r="J58" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="K58" t="n">
         <v>2014.0</v>
@@ -4170,34 +4077,34 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="G59" t="s">
-        <v>545</v>
+        <v>425</v>
       </c>
       <c r="H59" t="s">
-        <v>601</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="J59" t="s">
-        <v>676</v>
+        <v>276</v>
       </c>
       <c r="K59" t="n">
         <v>2014.0</v>
@@ -4205,34 +4112,34 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G60" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>576</v>
       </c>
       <c r="I60" t="s">
-        <v>640</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="K60" t="n">
         <v>2014.0</v>
@@ -4240,34 +4147,34 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
         <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G61" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="H61" t="s">
-        <v>602</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>641</v>
+        <v>519</v>
       </c>
       <c r="J61" t="s">
-        <v>659</v>
+        <v>326</v>
       </c>
       <c r="K61" t="n">
         <v>2014.0</v>
@@ -4275,34 +4182,34 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="G62" t="s">
-        <v>445</v>
+        <v>308</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>379</v>
       </c>
       <c r="I62" t="s">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="J62" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="K62" t="n">
         <v>2014.0</v>
@@ -4310,34 +4217,34 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="F63" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G63" t="s">
-        <v>188</v>
+        <v>525</v>
       </c>
       <c r="H63" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="I63" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="J63" t="s">
-        <v>341</v>
+        <v>614</v>
       </c>
       <c r="K63" t="n">
         <v>2014.0</v>
@@ -4345,34 +4252,34 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E64" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F64" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="G64" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="H64" t="s">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="J64" t="s">
-        <v>335</v>
+        <v>646</v>
       </c>
       <c r="K64" t="n">
         <v>2014.0</v>
@@ -4380,34 +4287,34 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D65" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="H65" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
       <c r="I65" t="s">
-        <v>642</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>320</v>
+        <v>616</v>
       </c>
       <c r="K65" t="n">
         <v>2014.0</v>
@@ -4415,34 +4322,34 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D66" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E66" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F66" t="s">
-        <v>483</v>
+        <v>233</v>
       </c>
       <c r="G66" t="s">
-        <v>548</v>
+        <v>308</v>
       </c>
       <c r="H66" t="s">
-        <v>603</v>
+        <v>558</v>
       </c>
       <c r="I66" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="J66" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K66" t="n">
         <v>2014.0</v>
@@ -4450,34 +4357,34 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>54</v>
       </c>
       <c r="G67" t="s">
-        <v>549</v>
+        <v>54</v>
       </c>
       <c r="H67" t="s">
-        <v>359</v>
+        <v>54</v>
       </c>
       <c r="I67" t="s">
-        <v>644</v>
+        <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>677</v>
+        <v>54</v>
       </c>
       <c r="K67" t="n">
         <v>2014.0</v>
@@ -4485,139 +4392,139 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E68" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F68" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G68" t="s">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="H68" t="s">
-        <v>604</v>
+        <v>376</v>
       </c>
       <c r="I68" t="s">
-        <v>532</v>
+        <v>297</v>
       </c>
       <c r="J68" t="s">
-        <v>647</v>
+        <v>545</v>
       </c>
       <c r="K68" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>425</v>
       </c>
       <c r="G69" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>583</v>
+        <v>399</v>
       </c>
       <c r="I69" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="K69" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>382</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>465</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>578</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>616</v>
       </c>
       <c r="J70" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="K70" t="n">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="E71" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="F71" t="s">
-        <v>485</v>
+        <v>170</v>
       </c>
       <c r="G71" t="s">
-        <v>550</v>
+        <v>178</v>
       </c>
       <c r="H71" t="s">
-        <v>605</v>
+        <v>399</v>
       </c>
       <c r="I71" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="J71" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="K71" t="n">
         <v>2015.0</v>
@@ -4625,34 +4532,34 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E72" t="s">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="G72" t="s">
-        <v>528</v>
+        <v>157</v>
       </c>
       <c r="H72" t="s">
-        <v>388</v>
+        <v>579</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="J72" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="K72" t="n">
         <v>2015.0</v>
@@ -4660,34 +4567,34 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D73" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E73" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="H73" t="s">
-        <v>415</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>646</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
-        <v>679</v>
+        <v>621</v>
       </c>
       <c r="K73" t="n">
         <v>2015.0</v>
@@ -4695,34 +4602,34 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="E74" t="s">
-        <v>397</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H74" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="I74" t="s">
-        <v>647</v>
+        <v>195</v>
       </c>
       <c r="J74" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K74" t="n">
         <v>2015.0</v>
@@ -4730,34 +4637,34 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E75" t="s">
-        <v>398</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G75" t="s">
-        <v>187</v>
+        <v>527</v>
       </c>
       <c r="H75" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="I75" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="J75" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="K75" t="n">
         <v>2015.0</v>
@@ -4765,34 +4672,34 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D76" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="G76" t="s">
-        <v>165</v>
+        <v>489</v>
       </c>
       <c r="H76" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="I76" t="s">
-        <v>338</v>
+        <v>531</v>
       </c>
       <c r="J76" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="K76" t="n">
         <v>2015.0</v>
@@ -4800,34 +4707,34 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="G77" t="s">
-        <v>326</v>
+        <v>528</v>
       </c>
       <c r="H77" t="s">
-        <v>392</v>
+        <v>582</v>
       </c>
       <c r="I77" t="s">
-        <v>546</v>
+        <v>269</v>
       </c>
       <c r="J77" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K77" t="n">
         <v>2015.0</v>
@@ -4835,34 +4742,34 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="E78" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="F78" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="G78" t="s">
-        <v>221</v>
+        <v>529</v>
       </c>
       <c r="H78" t="s">
-        <v>580</v>
+        <v>389</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="J78" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
       <c r="K78" t="n">
         <v>2015.0</v>
@@ -4870,34 +4777,34 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>387</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="G79" t="s">
-        <v>551</v>
+        <v>237</v>
       </c>
       <c r="H79" t="s">
-        <v>608</v>
+        <v>94</v>
       </c>
       <c r="I79" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="J79" t="s">
-        <v>680</v>
+        <v>643</v>
       </c>
       <c r="K79" t="n">
         <v>2015.0</v>
@@ -4905,34 +4812,34 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D80" t="s">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="F80" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="G80" t="s">
-        <v>512</v>
+        <v>204</v>
       </c>
       <c r="H80" t="s">
-        <v>609</v>
+        <v>347</v>
       </c>
       <c r="I80" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="J80" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="K80" t="n">
         <v>2015.0</v>
@@ -4940,34 +4847,34 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="E81" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="G81" t="s">
-        <v>552</v>
+        <v>204</v>
       </c>
       <c r="H81" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="J81" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="K81" t="n">
         <v>2015.0</v>
@@ -4975,34 +4882,34 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D82" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F82" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="G82" t="s">
-        <v>553</v>
+        <v>421</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="I82" t="s">
-        <v>247</v>
+        <v>541</v>
       </c>
       <c r="J82" t="s">
-        <v>202</v>
+        <v>616</v>
       </c>
       <c r="K82" t="n">
         <v>2015.0</v>
@@ -5010,34 +4917,34 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E83" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F83" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>530</v>
       </c>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>584</v>
       </c>
       <c r="I83" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J83" t="s">
-        <v>674</v>
+        <v>598</v>
       </c>
       <c r="K83" t="n">
         <v>2015.0</v>
@@ -5045,34 +4952,34 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="G84" t="s">
-        <v>213</v>
+        <v>509</v>
       </c>
       <c r="H84" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
       <c r="I84" t="s">
-        <v>529</v>
+        <v>333</v>
       </c>
       <c r="J84" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="K84" t="n">
         <v>2015.0</v>
@@ -5080,34 +4987,34 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G85" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="H85" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="I85" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
       <c r="J85" t="s">
-        <v>681</v>
+        <v>318</v>
       </c>
       <c r="K85" t="n">
         <v>2015.0</v>
@@ -5115,34 +5022,34 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="G86" t="s">
-        <v>441</v>
+        <v>214</v>
       </c>
       <c r="H86" t="s">
-        <v>161</v>
+        <v>557</v>
       </c>
       <c r="I86" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="J86" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="K86" t="n">
         <v>2015.0</v>
@@ -5150,34 +5057,34 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="E87" t="s">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="G87" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="H87" t="s">
-        <v>612</v>
+        <v>392</v>
       </c>
       <c r="I87" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="J87" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="K87" t="n">
         <v>2015.0</v>
@@ -5185,34 +5092,34 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D88" t="s">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
       <c r="F88" t="s">
-        <v>497</v>
+        <v>229</v>
       </c>
       <c r="G88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>569</v>
       </c>
       <c r="I88" t="s">
-        <v>342</v>
+        <v>617</v>
       </c>
       <c r="J88" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="K88" t="n">
         <v>2015.0</v>
@@ -5220,34 +5127,34 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>498</v>
+        <v>159</v>
       </c>
       <c r="G89" t="s">
-        <v>302</v>
+        <v>532</v>
       </c>
       <c r="H89" t="s">
-        <v>604</v>
+        <v>54</v>
       </c>
       <c r="I89" t="s">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="J89" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="K89" t="n">
         <v>2015.0</v>
@@ -5255,174 +5162,174 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E90" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="F90" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="G90" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="I90" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="J90" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="K90" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="E91" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F91" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="G91" t="s">
-        <v>544</v>
+        <v>324</v>
       </c>
       <c r="H91" t="s">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="J91" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="K91" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G92" t="s">
-        <v>555</v>
+        <v>260</v>
       </c>
       <c r="H92" t="s">
-        <v>595</v>
+        <v>376</v>
       </c>
       <c r="I92" t="s">
-        <v>648</v>
+        <v>214</v>
       </c>
       <c r="J92" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="K92" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="F93" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="G93" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="H93" t="s">
-        <v>56</v>
+        <v>585</v>
       </c>
       <c r="I93" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="J93" t="s">
-        <v>56</v>
+        <v>644</v>
       </c>
       <c r="K93" t="n">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="E94" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F94" t="s">
-        <v>501</v>
+        <v>261</v>
       </c>
       <c r="G94" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H94" t="s">
-        <v>613</v>
+        <v>386</v>
       </c>
       <c r="I94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J94" t="s">
-        <v>684</v>
+        <v>306</v>
       </c>
       <c r="K94" t="n">
         <v>2016.0</v>
@@ -5430,34 +5337,34 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="E95" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F95" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G95" t="s">
-        <v>225</v>
+        <v>533</v>
       </c>
       <c r="H95" t="s">
-        <v>416</v>
+        <v>586</v>
       </c>
       <c r="I95" t="s">
-        <v>649</v>
+        <v>309</v>
       </c>
       <c r="J95" t="s">
-        <v>673</v>
+        <v>599</v>
       </c>
       <c r="K95" t="n">
         <v>2016.0</v>
@@ -5465,34 +5372,34 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D96" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>338</v>
       </c>
       <c r="F96" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="G96" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="H96" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="I96" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="J96" t="s">
-        <v>685</v>
+        <v>629</v>
       </c>
       <c r="K96" t="n">
         <v>2016.0</v>
@@ -5500,34 +5407,34 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D97" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97" t="s">
+        <v>340</v>
+      </c>
+      <c r="F97" t="s">
+        <v>219</v>
+      </c>
+      <c r="G97" t="s">
         <v>259</v>
       </c>
-      <c r="E97" t="s">
-        <v>411</v>
-      </c>
-      <c r="F97" t="s">
-        <v>228</v>
-      </c>
-      <c r="G97" t="s">
-        <v>269</v>
-      </c>
       <c r="H97" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="I97" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="J97" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="K97" t="n">
         <v>2016.0</v>
@@ -5535,34 +5442,34 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="F98" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="G98" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="H98" t="s">
-        <v>614</v>
+        <v>152</v>
       </c>
       <c r="I98" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="J98" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
       <c r="K98" t="n">
         <v>2016.0</v>
@@ -5570,34 +5477,34 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="D99" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="E99" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="F99" t="s">
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="G99" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="H99" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I99" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="J99" t="s">
-        <v>316</v>
+        <v>602</v>
       </c>
       <c r="K99" t="n">
         <v>2016.0</v>
@@ -5605,34 +5512,34 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="E100" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F100" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="G100" t="s">
-        <v>557</v>
+        <v>438</v>
       </c>
       <c r="H100" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="I100" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="J100" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="K100" t="n">
         <v>2016.0</v>
@@ -5640,34 +5547,34 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="G101" t="s">
-        <v>179</v>
+        <v>515</v>
       </c>
       <c r="H101" t="s">
-        <v>142</v>
+        <v>567</v>
       </c>
       <c r="I101" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="J101" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="K101" t="n">
         <v>2016.0</v>
@@ -5675,34 +5582,34 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E102" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="F102" t="s">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="G102" t="s">
-        <v>268</v>
+        <v>535</v>
       </c>
       <c r="H102" t="s">
-        <v>374</v>
+        <v>50</v>
       </c>
       <c r="I102" t="s">
-        <v>259</v>
+        <v>619</v>
       </c>
       <c r="J102" t="s">
-        <v>686</v>
+        <v>285</v>
       </c>
       <c r="K102" t="n">
         <v>2016.0</v>
@@ -5710,34 +5617,34 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="E103" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F103" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="G103" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H103" t="s">
-        <v>159</v>
+        <v>384</v>
       </c>
       <c r="I103" t="s">
-        <v>180</v>
+        <v>609</v>
       </c>
       <c r="J103" t="s">
-        <v>668</v>
+        <v>317</v>
       </c>
       <c r="K103" t="n">
         <v>2016.0</v>
@@ -5745,34 +5652,34 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E104" t="s">
-        <v>380</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="G104" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="H104" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="I104" t="s">
-        <v>179</v>
+        <v>620</v>
       </c>
       <c r="J104" t="s">
-        <v>632</v>
+        <v>287</v>
       </c>
       <c r="K104" t="n">
         <v>2016.0</v>
@@ -5780,34 +5687,34 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" t="s">
+        <v>272</v>
+      </c>
+      <c r="E105" t="s">
+        <v>404</v>
+      </c>
+      <c r="F105" t="s">
+        <v>487</v>
+      </c>
+      <c r="G105" t="s">
+        <v>211</v>
+      </c>
+      <c r="H105" t="s">
         <v>133</v>
       </c>
-      <c r="C105" t="s">
-        <v>253</v>
-      </c>
-      <c r="D105" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" t="s">
-        <v>416</v>
-      </c>
-      <c r="F105" t="s">
-        <v>507</v>
-      </c>
-      <c r="G105" t="s">
-        <v>459</v>
-      </c>
-      <c r="H105" t="s">
-        <v>602</v>
-      </c>
       <c r="I105" t="s">
-        <v>246</v>
+        <v>519</v>
       </c>
       <c r="J105" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="K105" t="n">
         <v>2016.0</v>
@@ -5815,34 +5722,34 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="E106" t="s">
-        <v>417</v>
+        <v>154</v>
       </c>
       <c r="F106" t="s">
-        <v>508</v>
+        <v>226</v>
       </c>
       <c r="G106" t="s">
         <v>538</v>
       </c>
       <c r="H106" t="s">
-        <v>593</v>
+        <v>379</v>
       </c>
       <c r="I106" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="J106" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="K106" t="n">
         <v>2016.0</v>
@@ -5850,34 +5757,34 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="E107" t="s">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="G107" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="H107" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I107" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="J107" t="s">
-        <v>295</v>
+        <v>625</v>
       </c>
       <c r="K107" t="n">
         <v>2016.0</v>
@@ -5885,34 +5792,34 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E108" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F108" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="G108" t="s">
-        <v>560</v>
+        <v>284</v>
       </c>
       <c r="H108" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="I108" t="s">
-        <v>640</v>
+        <v>311</v>
       </c>
       <c r="J108" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="K108" t="n">
         <v>2016.0</v>
@@ -5920,34 +5827,34 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D109" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="E109" t="s">
-        <v>420</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="G109" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="H109" t="s">
-        <v>374</v>
+        <v>587</v>
       </c>
       <c r="I109" t="s">
-        <v>651</v>
+        <v>518</v>
       </c>
       <c r="J109" t="s">
-        <v>296</v>
+        <v>598</v>
       </c>
       <c r="K109" t="n">
         <v>2016.0</v>
@@ -5955,34 +5862,34 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D110" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="E110" t="s">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="G110" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>364</v>
       </c>
       <c r="I110" t="s">
-        <v>543</v>
+        <v>290</v>
       </c>
       <c r="J110" t="s">
-        <v>687</v>
+        <v>599</v>
       </c>
       <c r="K110" t="n">
         <v>2016.0</v>
@@ -5990,34 +5897,34 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E111" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="F111" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="G111" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="H111" t="s">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="I111" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="J111" t="s">
-        <v>671</v>
+        <v>54</v>
       </c>
       <c r="K111" t="n">
         <v>2016.0</v>
@@ -6025,209 +5932,209 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F112" t="s">
-        <v>511</v>
+        <v>198</v>
       </c>
       <c r="G112" t="s">
-        <v>562</v>
+        <v>155</v>
       </c>
       <c r="H112" t="s">
-        <v>161</v>
+        <v>588</v>
       </c>
       <c r="I112" t="s">
-        <v>637</v>
+        <v>271</v>
       </c>
       <c r="J112" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="K112" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D113" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="E113" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="F113" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
       <c r="G113" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="H113" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
       <c r="I113" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="J113" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="K113" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="E114" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F114" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="G114" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="H114" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="I114" t="s">
-        <v>542</v>
+        <v>319</v>
       </c>
       <c r="J114" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K114" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="F115" t="s">
-        <v>279</v>
+        <v>491</v>
       </c>
       <c r="G115" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="H115" t="s">
         <v>375</v>
       </c>
       <c r="I115" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J115" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="K115" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D116" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E116" t="s">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="F116" t="s">
-        <v>294</v>
+        <v>492</v>
       </c>
       <c r="G116" t="s">
-        <v>564</v>
+        <v>254</v>
       </c>
       <c r="H116" t="s">
-        <v>56</v>
+        <v>590</v>
       </c>
       <c r="I116" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="J116" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="K116" t="n">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C117" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="D117" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E117" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F117" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G117" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="H117" t="s">
-        <v>617</v>
+        <v>391</v>
       </c>
       <c r="I117" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J117" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="K117" t="n">
         <v>2017.0</v>
@@ -6235,34 +6142,34 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>329</v>
       </c>
       <c r="E118" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F118" t="s">
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="G118" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="H118" t="s">
-        <v>618</v>
+        <v>70</v>
       </c>
       <c r="I118" t="s">
-        <v>281</v>
+        <v>621</v>
       </c>
       <c r="J118" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K118" t="n">
         <v>2017.0</v>
@@ -6270,34 +6177,34 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="E119" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F119" t="s">
-        <v>441</v>
+        <v>184</v>
       </c>
       <c r="G119" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H119" t="s">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="I119" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="J119" t="s">
-        <v>337</v>
+        <v>644</v>
       </c>
       <c r="K119" t="n">
         <v>2017.0</v>
@@ -6305,34 +6212,34 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D120" t="s">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="E120" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F120" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="G120" t="s">
-        <v>565</v>
+        <v>218</v>
       </c>
       <c r="H120" t="s">
-        <v>619</v>
+        <v>73</v>
       </c>
       <c r="I120" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="J120" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="K120" t="n">
         <v>2017.0</v>
@@ -6340,34 +6247,34 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="D121" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="E121" t="s">
-        <v>428</v>
+        <v>61</v>
       </c>
       <c r="F121" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="G121" t="s">
-        <v>284</v>
+        <v>542</v>
       </c>
       <c r="H121" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="I121" t="s">
-        <v>301</v>
+        <v>506</v>
       </c>
       <c r="J121" t="s">
-        <v>645</v>
+        <v>194</v>
       </c>
       <c r="K121" t="n">
         <v>2017.0</v>
@@ -6375,34 +6282,34 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="E122" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F122" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="G122" t="s">
-        <v>263</v>
+        <v>543</v>
       </c>
       <c r="H122" t="s">
-        <v>620</v>
+        <v>152</v>
       </c>
       <c r="I122" t="s">
-        <v>341</v>
+        <v>622</v>
       </c>
       <c r="J122" t="s">
-        <v>293</v>
+        <v>656</v>
       </c>
       <c r="K122" t="n">
         <v>2017.0</v>
@@ -6410,34 +6317,34 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C123" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="D123" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="E123" t="s">
-        <v>430</v>
+        <v>101</v>
       </c>
       <c r="F123" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G123" t="s">
-        <v>227</v>
+        <v>504</v>
       </c>
       <c r="H123" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="J123" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="K123" t="n">
         <v>2017.0</v>
@@ -6445,34 +6352,34 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="E124" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F124" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="G124" t="s">
-        <v>210</v>
+        <v>544</v>
       </c>
       <c r="H124" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I124" t="s">
-        <v>652</v>
+        <v>528</v>
       </c>
       <c r="J124" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K124" t="n">
         <v>2017.0</v>
@@ -6480,34 +6387,34 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>192</v>
+        <v>457</v>
       </c>
       <c r="G125" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="H125" t="s">
-        <v>589</v>
+        <v>348</v>
       </c>
       <c r="I125" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="J125" t="s">
-        <v>675</v>
+        <v>317</v>
       </c>
       <c r="K125" t="n">
         <v>2017.0</v>
@@ -6515,34 +6422,34 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E126" t="s">
-        <v>433</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G126" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="H126" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I126" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="J126" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="K126" t="n">
         <v>2017.0</v>
@@ -6550,34 +6457,34 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="F127" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="G127" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="H127" t="s">
-        <v>435</v>
+        <v>591</v>
       </c>
       <c r="I127" t="s">
-        <v>530</v>
+        <v>233</v>
       </c>
       <c r="J127" t="s">
-        <v>202</v>
+        <v>617</v>
       </c>
       <c r="K127" t="n">
         <v>2017.0</v>
@@ -6585,34 +6492,34 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="E128" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="F128" t="s">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="G128" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>558</v>
       </c>
       <c r="I128" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="J128" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="K128" t="n">
         <v>2017.0</v>
@@ -6620,34 +6527,34 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="D129" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E129" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="G129" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="H129" t="s">
-        <v>438</v>
+        <v>112</v>
       </c>
       <c r="I129" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="J129" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="K129" t="n">
         <v>2017.0</v>
@@ -6655,34 +6562,34 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C130" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D130" t="s">
-        <v>297</v>
+        <v>195</v>
       </c>
       <c r="E130" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="F130" t="s">
-        <v>522</v>
+        <v>216</v>
       </c>
       <c r="G130" t="s">
-        <v>568</v>
+        <v>312</v>
       </c>
       <c r="H130" t="s">
-        <v>53</v>
+        <v>592</v>
       </c>
       <c r="I130" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="J130" t="s">
-        <v>659</v>
+        <v>299</v>
       </c>
       <c r="K130" t="n">
         <v>2017.0</v>
@@ -6690,34 +6597,34 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D131" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="E131" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F131" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="G131" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="H131" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="J131" t="s">
-        <v>327</v>
+        <v>601</v>
       </c>
       <c r="K131" t="n">
         <v>2017.0</v>
@@ -6725,34 +6632,34 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="D132" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E132" t="s">
         <v>420</v>
       </c>
       <c r="F132" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="G132" t="s">
-        <v>167</v>
+        <v>477</v>
       </c>
       <c r="H132" t="s">
-        <v>74</v>
+        <v>593</v>
       </c>
       <c r="I132" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
       <c r="J132" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="K132" t="n">
         <v>2017.0</v>
@@ -6760,246 +6667,36 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D133" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="E133" t="s">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="F133" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="G133" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="H133" t="s">
-        <v>621</v>
+        <v>76</v>
       </c>
       <c r="I133" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="J133" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="K133" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" t="s">
-        <v>55</v>
-      </c>
-      <c r="C134" t="s">
-        <v>275</v>
-      </c>
-      <c r="D134" t="s">
-        <v>342</v>
-      </c>
-      <c r="E134" t="s">
-        <v>437</v>
-      </c>
-      <c r="F134" t="s">
-        <v>280</v>
-      </c>
-      <c r="G134" t="s">
-        <v>569</v>
-      </c>
-      <c r="H134" t="s">
-        <v>583</v>
-      </c>
-      <c r="I134" t="s">
-        <v>654</v>
-      </c>
-      <c r="J134" t="s">
-        <v>690</v>
-      </c>
-      <c r="K134" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" t="s">
-        <v>140</v>
-      </c>
-      <c r="C135" t="s">
-        <v>191</v>
-      </c>
-      <c r="D135" t="s">
-        <v>343</v>
-      </c>
-      <c r="E135" t="s">
-        <v>438</v>
-      </c>
-      <c r="F135" t="s">
-        <v>524</v>
-      </c>
-      <c r="G135" t="s">
-        <v>570</v>
-      </c>
-      <c r="H135" t="s">
-        <v>117</v>
-      </c>
-      <c r="I135" t="s">
-        <v>299</v>
-      </c>
-      <c r="J135" t="s">
-        <v>634</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" t="s">
-        <v>159</v>
-      </c>
-      <c r="C136" t="s">
-        <v>276</v>
-      </c>
-      <c r="D136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E136" t="s">
-        <v>423</v>
-      </c>
-      <c r="F136" t="s">
-        <v>225</v>
-      </c>
-      <c r="G136" t="s">
-        <v>322</v>
-      </c>
-      <c r="H136" t="s">
-        <v>622</v>
-      </c>
-      <c r="I136" t="s">
-        <v>645</v>
-      </c>
-      <c r="J136" t="s">
-        <v>308</v>
-      </c>
-      <c r="K136" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>31</v>
-      </c>
-      <c r="B137" t="s">
-        <v>160</v>
-      </c>
-      <c r="C137" t="s">
-        <v>277</v>
-      </c>
-      <c r="D137" t="s">
-        <v>309</v>
-      </c>
-      <c r="E137" t="s">
-        <v>439</v>
-      </c>
-      <c r="F137" t="s">
-        <v>525</v>
-      </c>
-      <c r="G137" t="s">
-        <v>246</v>
-      </c>
-      <c r="H137" t="s">
-        <v>161</v>
-      </c>
-      <c r="I137" t="s">
-        <v>285</v>
-      </c>
-      <c r="J137" t="s">
-        <v>631</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" t="s">
-        <v>161</v>
-      </c>
-      <c r="C138" t="s">
-        <v>278</v>
-      </c>
-      <c r="D138" t="s">
-        <v>330</v>
-      </c>
-      <c r="E138" t="s">
-        <v>440</v>
-      </c>
-      <c r="F138" t="s">
-        <v>526</v>
-      </c>
-      <c r="G138" t="s">
-        <v>499</v>
-      </c>
-      <c r="H138" t="s">
-        <v>623</v>
-      </c>
-      <c r="I138" t="s">
-        <v>655</v>
-      </c>
-      <c r="J138" t="s">
-        <v>691</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2017.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>33</v>
-      </c>
-      <c r="B139" t="s">
-        <v>121</v>
-      </c>
-      <c r="C139" t="s">
-        <v>276</v>
-      </c>
-      <c r="D139" t="s">
-        <v>343</v>
-      </c>
-      <c r="E139" t="s">
-        <v>79</v>
-      </c>
-      <c r="F139" t="s">
-        <v>527</v>
-      </c>
-      <c r="G139" t="s">
-        <v>571</v>
-      </c>
-      <c r="H139" t="s">
-        <v>79</v>
-      </c>
-      <c r="I139" t="s">
-        <v>229</v>
-      </c>
-      <c r="J139" t="s">
-        <v>649</v>
-      </c>
-      <c r="K139" t="n">
         <v>2017.0</v>
       </c>
     </row>

--- a/pm_death2_total.xlsx
+++ b/pm_death2_total.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="671">
   <si>
     <t>county</t>
   </si>
@@ -47,1230 +47,1248 @@
     <t>year</t>
   </si>
   <si>
+    <t>county_code</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>臺北市</t>
+  </si>
+  <si>
+    <t>臺中市</t>
+  </si>
+  <si>
+    <t>臺南市</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>臺東縣</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>新竹市</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>774</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>34.2</t>
+  </si>
+  <si>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>41.6</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>44.9</t>
+  </si>
+  <si>
+    <t>39.6</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>29.6</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>24.7</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>20.1</t>
+  </si>
+  <si>
+    <t>24.3</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>37.1</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>43.8</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>42.7</t>
+  </si>
+  <si>
+    <t>42.6</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>22.7</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>57.4</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>52.3</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>43.9</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>21.6</t>
+  </si>
+  <si>
+    <t>23.2</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>51.8</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>40.7</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>14.9</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>21.9</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>26.9</t>
+  </si>
+  <si>
+    <t>38.6</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>18.6</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>18.7</t>
+  </si>
+  <si>
+    <t>20.3</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>15.2</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>14.4</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>15.8</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>14.2</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>14.7</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>12.8</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.7</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>11.6</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
-    <t>63</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>274</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>67</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>10002</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>10004</t>
-  </si>
-  <si>
-    <t>10005</t>
-  </si>
-  <si>
-    <t>10007</t>
-  </si>
-  <si>
-    <t>10008</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>10010</t>
-  </si>
-  <si>
-    <t>10013</t>
-  </si>
-  <si>
-    <t>10014</t>
-  </si>
-  <si>
-    <t>10015</t>
-  </si>
-  <si>
-    <t>10016</t>
-  </si>
-  <si>
-    <t>10017</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>10020</t>
-  </si>
-  <si>
-    <t>09020</t>
-  </si>
-  <si>
-    <t>09007</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>774</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>797</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>540</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>477</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>23.6</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>41.6</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>42.2</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>39.6</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>17.7</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>22.8</t>
-  </si>
-  <si>
-    <t>29.6</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>33.4</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>35.9</t>
-  </si>
-  <si>
-    <t>15.1</t>
-  </si>
-  <si>
-    <t>26.6</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>20.1</t>
-  </si>
-  <si>
-    <t>24.3</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>37.1</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>32.2</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>41.5</t>
-  </si>
-  <si>
-    <t>43.8</t>
-  </si>
-  <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>42.6</t>
-  </si>
-  <si>
-    <t>27.8</t>
-  </si>
-  <si>
-    <t>17.9</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>22.7</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>38.4</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>57.4</t>
-  </si>
-  <si>
-    <t>39.7</t>
-  </si>
-  <si>
-    <t>52.3</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>24.4</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>21.6</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>25.1</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>41.8</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>52.2</t>
-  </si>
-  <si>
-    <t>51.8</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>49.6</t>
-  </si>
-  <si>
-    <t>40.7</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>14.9</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>21.9</t>
-  </si>
-  <si>
-    <t>21.8</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>37.2</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>26.9</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>46.8</t>
-  </si>
-  <si>
-    <t>37.3</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>29.3</t>
-  </si>
-  <si>
-    <t>17.6</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>18.6</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>18.7</t>
-  </si>
-  <si>
-    <t>20.3</t>
-  </si>
-  <si>
-    <t>22.9</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>16.1</t>
-  </si>
-  <si>
-    <t>16.3</t>
-  </si>
-  <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>15.8</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>20.8</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>14.7</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -1995,6 +2013,18 @@
   </si>
   <si>
     <t>1.4</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2079,4625 +2109,5024 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K2" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L2" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J3" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K3" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L3" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H4" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K4" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L4" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L5" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K6" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L6" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="J8" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K8" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L8" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="I9" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J9" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K9" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L9" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G10" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H10" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I10" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="J10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K10" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L10" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J11" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K11" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L11" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L12" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G13" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H13" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J13" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K13" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L13" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F14" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G14" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="I14" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="J14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K14" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L14" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H15" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="I15" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="J15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L15" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="I16" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="J16" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K16" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L16" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G17" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J17" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K17" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L17" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="I18" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J18" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="K18" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L18" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H19" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K19" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H20" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="I20" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="J20" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K20" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L20" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G21" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K21" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J22" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="K22" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L22" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23" t="n">
         <v>2012.0</v>
       </c>
+      <c r="L23" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H24" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="I24" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="J24" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K24" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L24" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J25" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="K25" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L25" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F26" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K26" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L26" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J27" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="K27" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L27" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F28" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G28" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K28" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L28" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G29" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H29" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K29" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K30" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L30" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" t="s">
+        <v>570</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
         <v>196</v>
-      </c>
-      <c r="H31" t="s">
-        <v>564</v>
-      </c>
-      <c r="I31" t="s">
-        <v>296</v>
-      </c>
-      <c r="J31" t="s">
-        <v>195</v>
       </c>
       <c r="K31" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L31" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G32" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H32" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K32" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L32" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F33" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G33" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H33" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K33" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L33" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G34" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="I34" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="J34" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K34" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L34" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H35" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J35" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K35" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L35" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G36" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H36" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="I36" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="J36" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K36" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L36" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G37" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="K37" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L37" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G38" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K38" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L38" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F39" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G39" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I39" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="J39" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="K39" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L39" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I40" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="J40" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K40" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L40" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="J41" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K41" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L41" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I42" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J42" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K42" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H43" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J43" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K43" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G44" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J44" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K44" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L44" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" t="n">
         <v>2013.0</v>
       </c>
+      <c r="L45" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E46" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F46" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H46" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J46" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K46" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L46" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I47" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J47" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="K47" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L47" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E48" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H48" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J48" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K48" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L48" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G49" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="H49" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="I49" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="J49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K49" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E50" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H50" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J50" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K50" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L50" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E51" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K51" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L51" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H52" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="I52" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J52" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K52" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L52" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>373</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>467</v>
+      </c>
+      <c r="H53" t="s">
+        <v>578</v>
+      </c>
+      <c r="I53" t="s">
         <v>233</v>
       </c>
-      <c r="E53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F53" t="s">
-        <v>454</v>
-      </c>
-      <c r="G53" t="s">
-        <v>461</v>
-      </c>
-      <c r="H53" t="s">
-        <v>572</v>
-      </c>
-      <c r="I53" t="s">
-        <v>232</v>
-      </c>
       <c r="J53" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K53" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L53" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" t="s">
         <v>85</v>
       </c>
-      <c r="C54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D54" t="s">
-        <v>288</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
       <c r="F54" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G54" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H54" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J54" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K54" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L54" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E55" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H55" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J55" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K55" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L55" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G56" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H56" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I56" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="K56" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L56" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E57" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I57" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K57" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L57" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E58" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G58" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H58" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I58" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J58" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K58" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L58" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G59" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="J59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K59" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L59" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="J60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K60" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L60" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I61" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="J61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K61" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L61" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G62" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H62" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I62" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="J62" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K62" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L62" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G63" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H63" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="I63" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="J63" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="K63" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L63" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E64" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F64" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G64" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I64" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J64" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K64" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L64" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="F65" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H65" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="J65" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K65" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L65" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E66" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H66" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="I66" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="J66" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="K66" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L66" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K67" t="n">
         <v>2014.0</v>
       </c>
+      <c r="L67" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F68" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G68" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H68" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J68" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K68" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L68" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E69" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F69" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H69" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I69" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="J69" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="K69" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L69" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F70" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G70" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H70" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="I70" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="J70" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K70" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L70" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H71" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J71" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K71" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L71" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I72" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J72" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K72" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L72" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E73" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F73" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="I73" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="K73" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L73" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H74" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="I74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K74" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L74" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H75" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="I75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J75" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K75" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L75" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G76" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H76" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="I76" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="J76" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K76" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L76" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E77" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H77" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="I77" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J77" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K77" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L77" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F78" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G78" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H78" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K78" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L78" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F79" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K79" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L79" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E80" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F80" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I80" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J80" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="K80" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L80" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F81" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H81" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="K81" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L81" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F82" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G82" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I82" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="J82" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K82" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L82" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G83" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H83" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="I83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J83" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K83" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L83" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="G84" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J84" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K84" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L84" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H85" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J85" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K85" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L85" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F86" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H86" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J86" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K86" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L86" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G87" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H87" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I87" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J87" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="K87" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L87" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E88" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G88" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I88" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="J88" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="K88" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L88" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F89" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G89" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K89" t="n">
         <v>2015.0</v>
       </c>
+      <c r="L89" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E90" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H90" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="I90" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="J90" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K90" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L90" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="K91" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L91" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G92" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J92" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="K92" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L92" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E93" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F93" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G93" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H93" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="I93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J93" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K93" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L93" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F94" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G94" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H94" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K94" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L94" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G95" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H95" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J95" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K95" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L95" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F96" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I96" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J96" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K96" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L96" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J97" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="K97" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L97" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F98" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G98" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H98" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J98" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K98" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L98" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E99" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F99" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G99" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H99" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J99" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="K99" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L99" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F100" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G100" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H100" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J100" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K100" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L100" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F101" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G101" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H101" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J101" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K101" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L101" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F102" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G102" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I102" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="J102" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K102" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L102" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D103" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E103" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F103" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G103" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="H103" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I103" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K103" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L103" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="F104" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G104" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H104" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I104" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="J104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K104" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L104" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E105" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F105" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I105" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="J105" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K105" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L105" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D106" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E106" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G106" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H106" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J106" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="K106" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L106" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="F107" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G107" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H107" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I107" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J107" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K107" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L107" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D108" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E108" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F108" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G108" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H108" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="I108" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J108" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K108" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L108" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G109" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="I109" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="J109" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K109" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L109" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E110" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F110" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G110" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H110" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I110" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J110" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K110" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L110" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G111" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K111" t="n">
         <v>2016.0</v>
       </c>
+      <c r="L111" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E112" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H112" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="I112" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J112" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K112" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L112" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E113" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F113" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G113" t="s">
+        <v>330</v>
+      </c>
+      <c r="H113" t="s">
+        <v>344</v>
+      </c>
+      <c r="I113" t="s">
+        <v>309</v>
+      </c>
+      <c r="J113" t="s">
         <v>329</v>
-      </c>
-      <c r="H113" t="s">
-        <v>343</v>
-      </c>
-      <c r="I113" t="s">
-        <v>308</v>
-      </c>
-      <c r="J113" t="s">
-        <v>328</v>
       </c>
       <c r="K113" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L113" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E114" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F114" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G114" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H114" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="I114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J114" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K114" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L114" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E115" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F115" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H115" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J115" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="K115" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L115" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D116" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E116" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F116" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H116" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="I116" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K116" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L116" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D117" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E117" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H117" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J117" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="K117" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L117" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E118" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F118" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H118" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I118" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="J118" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K118" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L118" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E119" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H119" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J119" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K119" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L119" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C120" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D120" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E120" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F120" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H120" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J120" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K120" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L120" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F121" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G121" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H121" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I121" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="J121" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K121" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L121" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F122" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G122" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I122" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="J122" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="K122" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L122" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E123" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F123" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G123" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="I123" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J123" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K123" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L123" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F124" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G124" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H124" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I124" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="J124" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K124" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L124" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E125" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F125" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H125" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J125" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K125" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L125" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>407</v>
       </c>
       <c r="F126" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G126" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J126" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="K126" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L126" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D127" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E127" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F127" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G127" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H127" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="I127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J127" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K127" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L127" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E128" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G128" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H128" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="I128" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="J128" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="K128" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L128" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="F129" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G129" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H129" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I129" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J129" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K129" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L129" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D130" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E130" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G130" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H130" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="I130" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="J130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K130" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L130" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D131" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E131" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F131" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I131" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J131" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K131" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L131" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C132" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E132" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F132" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G132" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H132" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="I132" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="J132" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="K132" t="n">
         <v>2017.0</v>
       </c>
+      <c r="L132" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G133" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I133" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J133" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K133" t="n">
         <v>2017.0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
